--- a/daily_track/20221125/20221125_conclusion.xlsx
+++ b/daily_track/20221125/20221125_conclusion.xlsx
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+      <selection activeCell="A53" sqref="A53:P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6"/>
@@ -4410,7 +4410,7 @@
       <c r="M76" s="9">
         <v>0</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="17">
         <v>-1.92222144991211</v>
       </c>
       <c r="O76" s="9" t="s">
